--- a/output/ejecucion_10/gridsearch_results/gs_ci_Regression Forest_s.xlsx
+++ b/output/ejecucion_10/gridsearch_results/gs_ci_Regression Forest_s.xlsx
@@ -501,16 +501,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>84.80438404083252</v>
+        <v>84.26375222206116</v>
       </c>
       <c r="C2">
-        <v>0.975931051061104</v>
+        <v>0.5392035927920483</v>
       </c>
       <c r="D2">
-        <v>0.128582763671875</v>
+        <v>0.1226839065551758</v>
       </c>
       <c r="E2">
-        <v>0.002298015872170071</v>
+        <v>0.004152511577276896</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -528,7 +528,7 @@
         <v>0.3087781270535473</v>
       </c>
       <c r="K2">
-        <v>0.2554716803593622</v>
+        <v>0.2554716803593623</v>
       </c>
       <c r="L2">
         <v>0.2908420364692815</v>
@@ -540,7 +540,7 @@
         <v>0.2792190033942248</v>
       </c>
       <c r="O2">
-        <v>0.01860144577258692</v>
+        <v>0.01860144577258689</v>
       </c>
       <c r="P2">
         <v>8</v>
@@ -551,16 +551,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>167.5698524475098</v>
+        <v>165.4198663711548</v>
       </c>
       <c r="C3">
-        <v>1.223973735357266</v>
+        <v>1.140080153311535</v>
       </c>
       <c r="D3">
-        <v>0.1737049579620361</v>
+        <v>0.1970319271087647</v>
       </c>
       <c r="E3">
-        <v>0.00698073416044171</v>
+        <v>0.06317546766214342</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -575,10 +575,10 @@
         <v>0.2725916938215193</v>
       </c>
       <c r="J3">
-        <v>0.305863308114248</v>
+        <v>0.3058633081142479</v>
       </c>
       <c r="K3">
-        <v>0.2587612800066947</v>
+        <v>0.2587612800066948</v>
       </c>
       <c r="L3">
         <v>0.292444411156599</v>
@@ -590,7 +590,7 @@
         <v>0.2803401624625441</v>
       </c>
       <c r="O3">
-        <v>0.01668844781675808</v>
+        <v>0.01668844781675802</v>
       </c>
       <c r="P3">
         <v>7</v>
@@ -601,16 +601,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>333.7757010936737</v>
+        <v>328.9015347480774</v>
       </c>
       <c r="C4">
-        <v>2.353897252580365</v>
+        <v>1.307124334315545</v>
       </c>
       <c r="D4">
-        <v>0.2518338680267334</v>
+        <v>0.2429068088531494</v>
       </c>
       <c r="E4">
-        <v>0.008575622843360839</v>
+        <v>0.008322541372031179</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -622,7 +622,7 @@
         <v>17</v>
       </c>
       <c r="I4">
-        <v>0.2668983127806852</v>
+        <v>0.2668983127806853</v>
       </c>
       <c r="J4">
         <v>0.305429174202795</v>
@@ -631,7 +631,7 @@
         <v>0.2576463224735992</v>
       </c>
       <c r="L4">
-        <v>0.2913858735979474</v>
+        <v>0.2913858735979475</v>
       </c>
       <c r="M4">
         <v>0.272482806149611</v>
@@ -651,16 +651,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>87.83066649436951</v>
+        <v>84.33918108940125</v>
       </c>
       <c r="C5">
-        <v>0.9136198134500442</v>
+        <v>1.035285487552368</v>
       </c>
       <c r="D5">
-        <v>0.1301943302154541</v>
+        <v>0.1156947612762451</v>
       </c>
       <c r="E5">
-        <v>0.006607890529916089</v>
+        <v>0.005993683485882046</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -672,10 +672,10 @@
         <v>18</v>
       </c>
       <c r="I5">
-        <v>0.2723413961448135</v>
+        <v>0.2723413961448133</v>
       </c>
       <c r="J5">
-        <v>0.3101487530723532</v>
+        <v>0.3101487530723533</v>
       </c>
       <c r="K5">
         <v>0.2589342834073319</v>
@@ -690,7 +690,7 @@
         <v>0.2814513835461507</v>
       </c>
       <c r="O5">
-        <v>0.01731849307965139</v>
+        <v>0.01731849307965144</v>
       </c>
       <c r="P5">
         <v>3</v>
@@ -701,16 +701,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>173.9305192947388</v>
+        <v>169.4642113685608</v>
       </c>
       <c r="C6">
-        <v>1.606238406467688</v>
+        <v>0.8751680242027795</v>
       </c>
       <c r="D6">
-        <v>0.1686759948730469</v>
+        <v>0.1602201461791992</v>
       </c>
       <c r="E6">
-        <v>0.00239501679052084</v>
+        <v>0.002889295324554659</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -722,7 +722,7 @@
         <v>19</v>
       </c>
       <c r="I6">
-        <v>0.2730449611538471</v>
+        <v>0.273044961153847</v>
       </c>
       <c r="J6">
         <v>0.307201804861932</v>
@@ -731,16 +731,16 @@
         <v>0.2602250833790325</v>
       </c>
       <c r="L6">
-        <v>0.2935799278349285</v>
+        <v>0.2935799278349287</v>
       </c>
       <c r="M6">
-        <v>0.277664932479384</v>
+        <v>0.2776649324793838</v>
       </c>
       <c r="N6">
         <v>0.2823433419418248</v>
       </c>
       <c r="O6">
-        <v>0.01638150666764487</v>
+        <v>0.01638150666764492</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>346.1316010475159</v>
+        <v>336.9498705387115</v>
       </c>
       <c r="C7">
-        <v>2.210978307390508</v>
+        <v>1.866326510933278</v>
       </c>
       <c r="D7">
-        <v>0.2509807109832763</v>
+        <v>0.2364583492279053</v>
       </c>
       <c r="E7">
-        <v>0.01066461124078404</v>
+        <v>0.008422131380996289</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -775,7 +775,7 @@
         <v>0.2695475830456125</v>
       </c>
       <c r="J7">
-        <v>0.3069497247076542</v>
+        <v>0.3069497247076541</v>
       </c>
       <c r="K7">
         <v>0.2593876975157222</v>
@@ -790,7 +790,7 @@
         <v>0.281421076765458</v>
       </c>
       <c r="O7">
-        <v>0.01693438104286294</v>
+        <v>0.0169343810428629</v>
       </c>
       <c r="P7">
         <v>5</v>
@@ -801,16 +801,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>87.40668330192565</v>
+        <v>86.38723387718201</v>
       </c>
       <c r="C8">
-        <v>1.232385253652575</v>
+        <v>1.12991192780396</v>
       </c>
       <c r="D8">
-        <v>0.1261737823486328</v>
+        <v>0.1230235576629639</v>
       </c>
       <c r="E8">
-        <v>0.002303026280218186</v>
+        <v>0.005910883851871462</v>
       </c>
       <c r="F8">
         <v>30</v>
@@ -822,7 +822,7 @@
         <v>21</v>
       </c>
       <c r="I8">
-        <v>0.2723413961448135</v>
+        <v>0.2723413961448133</v>
       </c>
       <c r="J8">
         <v>0.3101487530723533</v>
@@ -840,7 +840,7 @@
         <v>0.2814513835461507</v>
       </c>
       <c r="O8">
-        <v>0.01731849307965143</v>
+        <v>0.01731849307965144</v>
       </c>
       <c r="P8">
         <v>3</v>
@@ -851,16 +851,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>173.3890525817871</v>
+        <v>170.6446649074555</v>
       </c>
       <c r="C9">
-        <v>1.812879072498732</v>
+        <v>1.493579919494824</v>
       </c>
       <c r="D9">
-        <v>0.1682266712188721</v>
+        <v>0.1636258602142334</v>
       </c>
       <c r="E9">
-        <v>0.001571026907634067</v>
+        <v>0.01145395028010225</v>
       </c>
       <c r="F9">
         <v>30</v>
@@ -881,7 +881,7 @@
         <v>0.2602250833790325</v>
       </c>
       <c r="L9">
-        <v>0.2935799278349287</v>
+        <v>0.2935799278349286</v>
       </c>
       <c r="M9">
         <v>0.2776649324793838</v>
@@ -890,10 +890,10 @@
         <v>0.2823433419418248</v>
       </c>
       <c r="O9">
-        <v>0.01638150666764492</v>
+        <v>0.01638150666764491</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -901,16 +901,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>346.945400762558</v>
+        <v>338.0104477882385</v>
       </c>
       <c r="C10">
-        <v>2.963405052197688</v>
+        <v>2.213090139843418</v>
       </c>
       <c r="D10">
-        <v>0.2542241096496582</v>
+        <v>0.2355802059173584</v>
       </c>
       <c r="E10">
-        <v>0.009000603515908819</v>
+        <v>0.007548921549124281</v>
       </c>
       <c r="F10">
         <v>30</v>
@@ -925,7 +925,7 @@
         <v>0.2695475830456125</v>
       </c>
       <c r="J10">
-        <v>0.3069497247076542</v>
+        <v>0.3069497247076541</v>
       </c>
       <c r="K10">
         <v>0.2593876975157222</v>
@@ -940,7 +940,7 @@
         <v>0.281421076765458</v>
       </c>
       <c r="O10">
-        <v>0.01693438104286294</v>
+        <v>0.0169343810428629</v>
       </c>
       <c r="P10">
         <v>5</v>
